--- a/biology/Botanique/Teucrium_botrys/Teucrium_botrys.xlsx
+++ b/biology/Botanique/Teucrium_botrys/Teucrium_botrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium botrys, la Germandrée botryde, Germandrée en grappe ou Germandrée femelle, est une espèce de plantes herbacées de la famille des Lamiacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle atteint 6 à 30 cm de hauteur. Les fleurs sont rose pâle.
 </t>
@@ -542,7 +556,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fleurit de juin à août.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans presque toute la France, dans le sud de la Belgique.
 </t>
@@ -604,7 +622,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle affectionne les pelouses arides, rocailleuses, les friches, les cultures ; c'est une espèce thermophile, généralement calciphile.
 </t>
@@ -635,9 +655,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas évaluée à l'échelle mondiale par l'UICN. En Europe et en France elle est classée comme non préoccupante[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas évaluée à l'échelle mondiale par l'UICN. En Europe et en France elle est classée comme non préoccupante.
 Localement l'espèce est considérée en danger-critique (CR) en Nord-Pas-de-Calais ; comme vulnérable (VU) en Basse-Normandie, pays de la Loire et Picardie ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Poitou-Charentes, Limousin, Lorraine, Haute-Normandie, Alsace et région Centre.
 </t>
         </is>
